--- a/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="400">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1230,6 +1230,9 @@
   </si>
   <si>
     <t>UT(0-1-33)</t>
+  </si>
+  <si>
+    <t>UT(0-4-7)</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1937,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K581" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K582" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2263,11 +2266,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K581"/>
+  <dimension ref="A2:K582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="3285" topLeftCell="A534" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E546" sqref="E546"/>
+      <selection pane="bottomLeft" activeCell="E543" sqref="E543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2435,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>66.617000000000075</v>
+        <v>67.352000000000089</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2442,7 +2445,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>62.29200000000003</v>
+        <v>63.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14509,11 +14512,15 @@
       <c r="A539" s="40">
         <v>44682</v>
       </c>
-      <c r="B539" s="20"/>
+      <c r="B539" s="20" t="s">
+        <v>399</v>
+      </c>
       <c r="C539" s="13">
         <v>1.25</v>
       </c>
-      <c r="D539" s="39"/>
+      <c r="D539" s="39">
+        <v>0.51500000000000001</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
       <c r="G539" s="13">
@@ -15078,13 +15085,15 @@
       <c r="B565" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C565" s="13"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
@@ -15094,10 +15103,10 @@
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B566" s="20"/>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -15109,47 +15118,49 @@
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="48">
+        <v>45135</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B567" s="15"/>
-      <c r="C567" s="41"/>
-      <c r="D567" s="42"/>
-      <c r="E567" s="51"/>
-      <c r="F567" s="15"/>
-      <c r="G567" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H567" s="42"/>
-      <c r="I567" s="51"/>
-      <c r="J567" s="12"/>
-      <c r="K567" s="15"/>
+        <v>45139</v>
+      </c>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
-      <c r="D568" s="39"/>
-      <c r="E568" s="9"/>
-      <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="39"/>
-      <c r="I568" s="9"/>
-      <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B568" s="15"/>
+      <c r="C568" s="41"/>
+      <c r="D568" s="42"/>
+      <c r="E568" s="51"/>
+      <c r="F568" s="15"/>
+      <c r="G568" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="42"/>
+      <c r="I568" s="51"/>
+      <c r="J568" s="12"/>
+      <c r="K568" s="15"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15167,7 +15178,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15185,7 +15196,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15203,7 +15214,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15221,7 +15232,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15239,7 +15250,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15257,7 +15268,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15275,7 +15286,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15293,7 +15304,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15311,7 +15322,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15329,7 +15340,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15347,7 +15358,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15365,7 +15376,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15380,6 +15391,24 @@
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15490,14 +15519,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.19400000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="401">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>UT(0-4-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-33)</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1659,6 +1662,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2269,8 +2275,8 @@
   <dimension ref="A2:K582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="3285" topLeftCell="A534" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E543" sqref="E543"/>
+      <pane ySplit="3285" topLeftCell="A549" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K568" sqref="K568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2441,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>67.352000000000089</v>
+        <v>67.466000000000065</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2445,7 +2451,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>63.54200000000003</v>
+        <v>64.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14472,11 +14478,15 @@
       <c r="A537" s="40">
         <v>44621</v>
       </c>
-      <c r="B537" s="20"/>
+      <c r="B537" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
-      <c r="D537" s="39"/>
+      <c r="D537" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
       <c r="G537" s="13">
@@ -14492,11 +14502,15 @@
       <c r="A538" s="40">
         <v>44652</v>
       </c>
-      <c r="B538" s="20"/>
+      <c r="B538" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="C538" s="13">
         <v>1.25</v>
       </c>
-      <c r="D538" s="39"/>
+      <c r="D538" s="39">
+        <v>6.9000000000000006E-2</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
       <c r="G538" s="13">
@@ -15127,13 +15141,15 @@
         <v>45139</v>
       </c>
       <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
@@ -15144,9 +15160,13 @@
       <c r="A568" s="40">
         <v>45170</v>
       </c>
-      <c r="B568" s="15"/>
+      <c r="B568" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C568" s="41"/>
-      <c r="D568" s="42"/>
+      <c r="D568" s="42">
+        <v>1</v>
+      </c>
       <c r="E568" s="51"/>
       <c r="F568" s="15"/>
       <c r="G568" s="41" t="str">
@@ -15156,7 +15176,9 @@
       <c r="H568" s="42"/>
       <c r="I568" s="51"/>
       <c r="J568" s="12"/>
-      <c r="K568" s="15"/>
+      <c r="K568" s="63">
+        <v>45176</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
@@ -15519,14 +15541,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.51500000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="406">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1236,6 +1236,21 @@
   </si>
   <si>
     <t>UT(0-0-33)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
+  </si>
+  <si>
+    <t>UT(0-5-31)</t>
   </si>
 </sst>
 </file>
@@ -1630,6 +1645,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,9 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1943,7 +1958,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K582" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K586" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2272,11 +2287,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K582"/>
+  <dimension ref="A2:K586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="3285" topLeftCell="A549" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K568" sqref="K568"/>
+      <selection pane="bottomLeft" activeCell="F574" sqref="F574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,66 +2313,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="60">
         <v>35953</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2383,18 +2398,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2441,7 +2456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>67.466000000000065</v>
+        <v>69.389000000000067</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2451,7 +2466,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>64.79200000000003</v>
+        <v>69.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15137,74 +15152,84 @@
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B567" s="20"/>
-      <c r="C567" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D567" s="39"/>
+      <c r="A567" s="40"/>
+      <c r="B567" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39">
+        <v>0.69</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="48"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B568" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C568" s="41"/>
-      <c r="D568" s="42">
-        <v>1</v>
-      </c>
-      <c r="E568" s="51"/>
-      <c r="F568" s="15"/>
-      <c r="G568" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="42"/>
-      <c r="I568" s="51"/>
-      <c r="J568" s="12"/>
-      <c r="K568" s="63">
-        <v>45176</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B568" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D568" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B569" s="20"/>
-      <c r="C569" s="13"/>
-      <c r="D569" s="39"/>
-      <c r="E569" s="9"/>
-      <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H569" s="39"/>
-      <c r="I569" s="9"/>
-      <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B569" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D569" s="42">
+        <v>1</v>
+      </c>
+      <c r="E569" s="51"/>
+      <c r="F569" s="15"/>
+      <c r="G569" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H569" s="42"/>
+      <c r="I569" s="51"/>
+      <c r="J569" s="12"/>
+      <c r="K569" s="52">
+        <v>45176</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B570" s="20"/>
+      <c r="A570" s="40"/>
+      <c r="B570" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C570" s="13"/>
-      <c r="D570" s="39"/>
+      <c r="D570" s="39">
+        <v>0.54400000000000004</v>
+      </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
       <c r="G570" s="13" t="str">
@@ -15214,20 +15239,26 @@
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="48"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B571" s="20"/>
-      <c r="C571" s="13"/>
-      <c r="D571" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B571" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C571" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D571" s="39">
+        <v>0.11000000000000001</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G571" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
@@ -15236,29 +15267,39 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B572" s="20"/>
-      <c r="C572" s="13"/>
-      <c r="D572" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D572" s="39">
+        <v>1</v>
+      </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G572" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="20"/>
+      <c r="K572" s="48">
+        <v>45253</v>
+      </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B573" s="20"/>
+      <c r="A573" s="40"/>
+      <c r="B573" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="C573" s="13"/>
-      <c r="D573" s="39"/>
+      <c r="D573" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
       <c r="G573" s="13" t="str">
@@ -15268,20 +15309,26 @@
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20"/>
+      <c r="K573" s="48"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
-      <c r="D574" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D574" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
@@ -15289,8 +15336,8 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>45383</v>
+      <c r="A575" s="47" t="s">
+        <v>401</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15308,7 +15355,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15326,7 +15373,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15344,7 +15391,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15362,7 +15409,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15380,7 +15427,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15398,7 +15445,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15416,7 +15463,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15431,6 +15478,78 @@
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15495,17 +15614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -15541,14 +15660,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0.69</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">
@@ -15584,12 +15703,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/CTO/MABUTI, ANA MARIE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="410">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1251,6 +1251,18 @@
   </si>
   <si>
     <t>UT(0-5-31)</t>
+  </si>
+  <si>
+    <t>UT(0-0-50)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>2/2,16,20/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-21)</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1970,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K586" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K588" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2287,11 +2299,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K586"/>
+  <dimension ref="A2:K588"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="3285" topLeftCell="A549" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F574" sqref="F574"/>
+      <selection pane="bottomLeft" activeCell="F565" sqref="F565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2468,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>69.389000000000067</v>
+        <v>65.802000000000135</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14987,11 +14999,15 @@
       <c r="A559" s="40">
         <v>44927</v>
       </c>
-      <c r="B559" s="20"/>
+      <c r="B559" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="C559" s="13">
         <v>1.25</v>
       </c>
-      <c r="D559" s="39"/>
+      <c r="D559" s="39">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
       <c r="G559" s="13">
@@ -15007,11 +15023,15 @@
       <c r="A560" s="40">
         <v>44958</v>
       </c>
-      <c r="B560" s="20"/>
+      <c r="B560" s="20" t="s">
+        <v>407</v>
+      </c>
       <c r="C560" s="13">
         <v>1.25</v>
       </c>
-      <c r="D560" s="39"/>
+      <c r="D560" s="39">
+        <v>3</v>
+      </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
       <c r="G560" s="13">
@@ -15021,22 +15041,24 @@
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="20" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B561" s="20"/>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D561" s="39"/>
+      <c r="A561" s="40"/>
+      <c r="B561" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39">
+        <v>0.16000000000000003</v>
+      </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
@@ -15045,13 +15067,17 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B562" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
-      <c r="D562" s="39"/>
+      <c r="D562" s="39">
+        <v>0.10400000000000001</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13">
@@ -15065,13 +15091,17 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B563" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="C563" s="13">
         <v>1.25</v>
       </c>
-      <c r="D563" s="39"/>
+      <c r="D563" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
       <c r="G563" s="13">
@@ -15085,15 +15115,17 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B564" s="20" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C564" s="13">
         <v>1.25</v>
       </c>
-      <c r="D564" s="39"/>
+      <c r="D564" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
       <c r="G564" s="13">
@@ -15103,13 +15135,11 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="48">
-        <v>45103</v>
-      </c>
+      <c r="K564" s="20"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B565" s="20" t="s">
         <v>103</v>
@@ -15128,16 +15158,18 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="48">
-        <v>45117</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="C566" s="13"/>
-      <c r="D566" s="39"/>
+      <c r="D566" s="39">
+        <v>0.12100000000000001</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13" t="str">
@@ -15147,182 +15179,178 @@
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="48">
-        <v>45135</v>
-      </c>
+      <c r="K566" s="48"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40"/>
+      <c r="A567" s="40">
+        <v>45108</v>
+      </c>
       <c r="B567" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C567" s="13"/>
-      <c r="D567" s="39">
-        <v>0.69</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="48"/>
+      <c r="K567" s="48">
+        <v>45117</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D568" s="39">
-        <v>0.6</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="48">
+        <v>45135</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B569" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D569" s="42">
-        <v>1</v>
-      </c>
-      <c r="E569" s="51"/>
-      <c r="F569" s="15"/>
-      <c r="G569" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H569" s="42"/>
-      <c r="I569" s="51"/>
-      <c r="J569" s="12"/>
-      <c r="K569" s="52">
-        <v>45176</v>
-      </c>
+      <c r="A569" s="40"/>
+      <c r="B569" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39">
+        <v>0.69</v>
+      </c>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="48"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <v>45139</v>
+      </c>
       <c r="B570" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C570" s="13"/>
+        <v>301</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39">
-        <v>0.54400000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="48"/>
+      <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B571" s="20" t="s">
-        <v>404</v>
+        <v>45170</v>
+      </c>
+      <c r="B571" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C571" s="13">
         <v>1.25</v>
       </c>
-      <c r="D571" s="39">
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="E571" s="9"/>
-      <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H571" s="39"/>
-      <c r="I571" s="9"/>
-      <c r="J571" s="11"/>
-      <c r="K571" s="20"/>
+      <c r="D571" s="42">
+        <v>1</v>
+      </c>
+      <c r="E571" s="51"/>
+      <c r="F571" s="15"/>
+      <c r="G571" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H571" s="42"/>
+      <c r="I571" s="51"/>
+      <c r="J571" s="12"/>
+      <c r="K571" s="52">
+        <v>45176</v>
+      </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C572" s="13">
-        <v>1.25</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C572" s="13"/>
       <c r="D572" s="39">
-        <v>1</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="48">
-        <v>45253</v>
-      </c>
+      <c r="K572" s="48"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>45200</v>
+      </c>
       <c r="B573" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="C573" s="13"/>
+        <v>404</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D573" s="39">
-        <v>2E-3</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="48"/>
+      <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B574" s="20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C574" s="13">
         <v>1.25</v>
       </c>
       <c r="D574" s="39">
-        <v>0.13100000000000001</v>
+        <v>1</v>
       </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
@@ -15333,15 +15361,19 @@
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="K574" s="48">
+        <v>45253</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="B575" s="20"/>
+      <c r="A575" s="40"/>
+      <c r="B575" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="C575" s="13"/>
-      <c r="D575" s="39"/>
+      <c r="D575" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="13" t="str">
@@ -15351,20 +15383,26 @@
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
+      <c r="K575" s="48"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B576" s="20"/>
-      <c r="C576" s="13"/>
-      <c r="D576" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B576" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D576" s="39">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
@@ -15372,8 +15410,8 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <v>45323</v>
+      <c r="A577" s="47" t="s">
+        <v>401</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15391,7 +15429,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15409,7 +15447,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15427,7 +15465,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15445,7 +15483,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15463,7 +15501,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15481,7 +15519,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15499,7 +15537,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15517,7 +15555,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15535,7 +15573,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15550,6 +15588,42 @@
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15660,14 +15734,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.69</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="35">
